--- a/data/trans_bre/P50_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P50_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,23</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,53</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,75</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,47</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>60,96%</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>195,98%</t>
+          <t>27,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>150,11%</t>
+          <t>114,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>52,11%</t>
+          <t>12,79%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-11,87%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-16,6%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 29,06</t>
+          <t>-15,52; 24,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,96; 30,82</t>
+          <t>-7,27; 26,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,96; 28,36</t>
+          <t>-17,59; 18,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 20,66</t>
+          <t>-23,04; 14,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 261,85</t>
+          <t>-27,02; 13,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,24; 695,26</t>
+          <t>-46,84; 254,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,15; 558,24</t>
+          <t>-56,07; 804,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 255,53</t>
+          <t>-60,51; 245,02</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-67,91; 140,0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-68,74; 97,03</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-13,9</t>
+          <t>-20,7</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,59</t>
+          <t>-19,03</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,68</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,02</t>
+          <t>-26,92</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-30,04%</t>
+          <t>19,2</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-25,58%</t>
+          <t>-40,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>30,39%</t>
+          <t>-45,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-33,96%</t>
+          <t>30,14%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-52,95%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>109,24%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-34,15; 3,92</t>
+          <t>-44,74; 2,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,5; 7,16</t>
+          <t>-49,56; 3,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 22,08</t>
+          <t>-12,13; 24,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-35,49; 4,5</t>
+          <t>-54,81; -2,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,82; 13,51</t>
+          <t>0,94; 37,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,81; 31,63</t>
+          <t>-68,84; 11,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,26; 136,68</t>
+          <t>-77,16; 12,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-64,84; 17,63</t>
+          <t>-41,73; 263,09</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-80,81; -4,54</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5,11; 508,5</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,73</t>
+          <t>-8,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,12</t>
+          <t>-10,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-17,04%</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-30,36%</t>
+          <t>-27,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>-39,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-9,92%</t>
+          <t>24,52%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,36%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-2,25%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 5,82</t>
+          <t>-23,44; 4,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 3,46</t>
+          <t>-24,16; 2,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 18,36</t>
+          <t>-7,39; 18,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 9,7</t>
+          <t>-14,2; 14,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-45,99; 29,56</t>
+          <t>-16,15; 14,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-56,5; 20,42</t>
+          <t>-57,21; 26,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 106,99</t>
+          <t>-67,14; 10,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-47,81; 57,18</t>
+          <t>-26,19; 148,92</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-46,56; 116,65</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-41,91; 69,16</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,16</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,99</t>
+          <t>10,51</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,36</t>
+          <t>10,3</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,84</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,41%</t>
+          <t>14,1</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,63%</t>
+          <t>23,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>35,96%</t>
+          <t>46,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,14%</t>
+          <t>49,84%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>35,06%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>58,68%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 21,52</t>
+          <t>-7,17; 20,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 17,66</t>
+          <t>-2,97; 23,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 19,71</t>
+          <t>-3,56; 22,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 20,54</t>
+          <t>-4,84; 22,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 91,08</t>
+          <t>1,01; 27,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 87,98</t>
+          <t>-17,76; 84,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 96,89</t>
+          <t>-11,73; 152,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 101,09</t>
+          <t>-13,3; 158,62</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-15,19; 131,93</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3,1; 158,55</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,32</t>
+          <t>14,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>10,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>18,71</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>29,49%</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>53,13%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>32,27%</t>
+          <t>41,54%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>79,18%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>39,53%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18,0%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 20,4</t>
+          <t>-3,31; 32,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 14,4</t>
+          <t>-6,12; 26,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 21,34</t>
+          <t>2,4; 36,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 15,26</t>
+          <t>-5,69; 29,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 94,29</t>
+          <t>-12,17; 24,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-32,08; 68,26</t>
+          <t>-9,09; 163,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 100,88</t>
+          <t>-19,78; 164,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-27,77; 70,72</t>
+          <t>3,93; 209,29</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-18,69; 136,1</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-27,02; 89,35</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,07</t>
+          <t>8,18</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,98</t>
+          <t>12,66</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>9,34</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>32,74%</t>
+          <t>10,89</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>54,27%</t>
+          <t>27,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>85,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>72,13%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>46,34%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>37,8%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 26,37</t>
+          <t>-11,39; 28,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 23,47</t>
+          <t>-4,13; 30,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 19,05</t>
+          <t>-7,16; 29,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 18,63</t>
+          <t>-10,73; 30,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 116,32</t>
+          <t>-11,05; 40,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 169,39</t>
+          <t>-29,42; 172,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-34,0; 126,41</t>
+          <t>-26,55; 414,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,79; 96,32</t>
+          <t>-47,63; 548,42</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-39,29; 261,86</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-35,58; 233,82</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,56</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>8,42</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>-2,01%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>37,44%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>39,6%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-5,98%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>31,68%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 8,74</t>
+          <t>-9,06; 7,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 8,15</t>
+          <t>-9,46; 7,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,84; 14,27</t>
+          <t>1,9; 14,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 7,0</t>
+          <t>-12,11; 6,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 30,61</t>
+          <t>0,29; 16,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 37,13</t>
+          <t>-24,55; 25,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,69; 73,29</t>
+          <t>-30,64; 34,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 30,4</t>
+          <t>7,72; 84,49</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-33,18; 25,64</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1,57; 74,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
